--- a/xlsx/FR/wtp_FR.xlsx
+++ b/xlsx/FR/wtp_FR.xlsx
@@ -12,30 +12,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WTP to limit global warming ($/year): 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
   </si>
 </sst>
 </file>
@@ -380,61 +386,69 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.216383035574425</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
+        <v>0.407063362973647</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.255175871712138</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.25417338069419</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.627390195881064</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.553310319569959</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.704269036408383</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.783616964425575</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
+        <v>0.592936637026353</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.279485746226942</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.248694436345023</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.2439</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.215204024594746</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.301806669533019</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3137</v>
+        <v>0.744824128287862</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.74582661930581</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.372609804118936</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.446689680430041</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.295730963591617</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/wtp_FR.xlsx
+++ b/xlsx/FR/wtp_FR.xlsx
@@ -404,25 +404,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.216383035574425</v>
+        <v>0.311796315137295</v>
       </c>
       <c r="C2" t="n">
-        <v>0.407063362973647</v>
+        <v>0.363033243049923</v>
       </c>
       <c r="D2" t="n">
-        <v>0.255175871712138</v>
+        <v>0.294850887654986</v>
       </c>
       <c r="E2" t="n">
-        <v>0.25417338069419</v>
+        <v>0.349127878103825</v>
       </c>
       <c r="F2" t="n">
-        <v>0.627390195881064</v>
+        <v>0.629813135845463</v>
       </c>
       <c r="G2" t="n">
-        <v>0.553310319569959</v>
+        <v>0.555505270496244</v>
       </c>
       <c r="H2" t="n">
-        <v>0.704269036408383</v>
+        <v>0.75658931647506</v>
       </c>
     </row>
     <row r="3">
@@ -430,25 +430,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.783616964425575</v>
+        <v>0.688203684862705</v>
       </c>
       <c r="C3" t="n">
-        <v>0.592936637026353</v>
+        <v>0.636966756950077</v>
       </c>
       <c r="D3" t="n">
-        <v>0.744824128287862</v>
+        <v>0.705149112345014</v>
       </c>
       <c r="E3" t="n">
-        <v>0.74582661930581</v>
+        <v>0.650872121896175</v>
       </c>
       <c r="F3" t="n">
-        <v>0.372609804118936</v>
+        <v>0.370186864154537</v>
       </c>
       <c r="G3" t="n">
-        <v>0.446689680430041</v>
+        <v>0.444494729503757</v>
       </c>
       <c r="H3" t="n">
-        <v>0.295730963591617</v>
+        <v>0.24341068352494</v>
       </c>
     </row>
   </sheetData>
